--- a/Game/Resource/Enum/ItemType.xlsx
+++ b/Game/Resource/Enum/ItemType.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6493E173-937A-47BF-B91B-238C650A64C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA48D59-A9EE-4108-A09F-ECEBE481B96E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -373,7 +373,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
